--- a/DA_Business/project/p2_mailing/项目二：预测邮寄产品目录带来的收入增长/p1-mailinglist.xlsx
+++ b/DA_Business/project/p2_mailing/项目二：预测邮寄产品目录带来的收入增长/p1-mailinglist.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jun\udacity\DA_Business\project\p2_mailing\项目二：预测邮寄产品目录带来的收入增长\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA3828-15F6-4AA7-9FA3-CD749128D9EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19174" windowHeight="7654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p1-mailinglist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -1635,26 +1636,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1662,7 +1663,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1670,7 +1671,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1678,35 +1679,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1714,7 +1715,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1722,14 +1723,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1737,14 +1738,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1752,7 +1753,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1760,15 +1761,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2118,48 +2126,48 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2436,14 +2444,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +2491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2519,7 +2529,7 @@
         <v>0.30503580699999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2557,7 +2567,7 @@
         <v>0.472724537</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2595,7 +2605,7 @@
         <v>0.57888185000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2633,7 +2643,7 @@
         <v>0.30513781099999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2671,7 +2681,7 @@
         <v>0.38770585499999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2709,7 +2719,7 @@
         <v>0.267278293</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2747,7 +2757,7 @@
         <v>0.22173949400000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2785,7 +2795,7 @@
         <v>0.19344714900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2823,7 +2833,7 @@
         <v>0.25065761399999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2861,7 +2871,7 @@
         <v>0.26452315199999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2899,7 +2909,7 @@
         <v>0.190541402</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2937,7 +2947,7 @@
         <v>0.19154490499999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2975,7 +2985,7 @@
         <v>0.212284098</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3013,7 +3023,7 @@
         <v>0.27796209500000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -3051,7 +3061,7 @@
         <v>0.26970955200000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3089,7 +3099,7 @@
         <v>0.238435971</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3127,7 +3137,7 @@
         <v>0.23297942399999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -3165,7 +3175,7 @@
         <v>0.21210828600000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -3203,7 +3213,7 @@
         <v>0.22160676600000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -3241,7 +3251,7 @@
         <v>0.19171627499999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -3279,7 +3289,7 @@
         <v>0.326687748</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3317,7 +3327,7 @@
         <v>0.23341563700000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -3355,7 +3365,7 @@
         <v>0.27304769400000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -3393,7 +3403,7 @@
         <v>0.19725817300000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -3431,7 +3441,7 @@
         <v>0.62724496600000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -3469,7 +3479,7 @@
         <v>0.24007403299999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -3507,7 +3517,7 @@
         <v>0.25712037599999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3545,7 +3555,7 @@
         <v>0.61307269399999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -3583,7 +3593,7 @@
         <v>0.38621956099999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3621,7 +3631,7 @@
         <v>0.38321151599999997</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -3659,7 +3669,7 @@
         <v>0.29298455800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -3697,7 +3707,7 @@
         <v>0.24377779299999999</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -3735,7 +3745,7 @@
         <v>0.40985869899999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -3773,7 +3783,7 @@
         <v>0.22907971799999999</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -3811,7 +3821,7 @@
         <v>0.35448979200000003</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -3849,7 +3859,7 @@
         <v>0.20120116699999999</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -3887,7 +3897,7 @@
         <v>0.213904022</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -3925,7 +3935,7 @@
         <v>0.22415280500000001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -3963,7 +3973,7 @@
         <v>0.19136229799999999</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -4001,7 +4011,7 @@
         <v>0.49015270799999999</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -4039,7 +4049,7 @@
         <v>0.39429266099999999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -4077,7 +4087,7 @@
         <v>0.23105563900000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -4115,7 +4125,7 @@
         <v>0.481368976</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -4153,7 +4163,7 @@
         <v>0.18732610099999999</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -4191,7 +4201,7 @@
         <v>0.207404056</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -4229,7 +4239,7 @@
         <v>0.28427938699999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>123</v>
       </c>
@@ -4267,7 +4277,7 @@
         <v>0.202412487</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -4305,7 +4315,7 @@
         <v>0.74854627200000001</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -4343,7 +4353,7 @@
         <v>0.21154409499999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -4381,7 +4391,7 @@
         <v>0.190822935</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -4419,7 +4429,7 @@
         <v>0.28486938000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -4457,7 +4467,7 @@
         <v>0.36600523699999998</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -4495,7 +4505,7 @@
         <v>0.25531713499999997</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -4533,7 +4543,7 @@
         <v>0.50114359600000002</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -4571,7 +4581,7 @@
         <v>0.19502314300000001</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -4609,7 +4619,7 @@
         <v>0.194825795</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -4647,7 +4657,7 @@
         <v>0.99882496200000004</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -4685,7 +4695,7 @@
         <v>0.268190172</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -4723,7 +4733,7 @@
         <v>0.21355267999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>151</v>
       </c>
@@ -4761,7 +4771,7 @@
         <v>0.18643868099999999</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -4799,7 +4809,7 @@
         <v>0.204701043</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>155</v>
       </c>
@@ -4837,7 +4847,7 @@
         <v>0.19957677400000001</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>157</v>
       </c>
@@ -4875,7 +4885,7 @@
         <v>0.23578850800000001</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>160</v>
       </c>
@@ -4913,7 +4923,7 @@
         <v>0.206906695</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>162</v>
       </c>
@@ -4951,7 +4961,7 @@
         <v>0.20274335399999999</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>164</v>
       </c>
@@ -4989,7 +4999,7 @@
         <v>0.54112264600000004</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>166</v>
       </c>
@@ -5027,7 +5037,7 @@
         <v>0.25644796399999997</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>168</v>
       </c>
@@ -5065,7 +5075,7 @@
         <v>0.24255331899999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>170</v>
       </c>
@@ -5103,7 +5113,7 @@
         <v>0.246686406</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>172</v>
       </c>
@@ -5141,7 +5151,7 @@
         <v>0.1931495</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>174</v>
       </c>
@@ -5179,7 +5189,7 @@
         <v>0.200860496</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -5217,7 +5227,7 @@
         <v>0.31807552300000003</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>178</v>
       </c>
@@ -5255,7 +5265,7 @@
         <v>0.21379023799999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>180</v>
       </c>
@@ -5293,7 +5303,7 @@
         <v>0.434214031</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>182</v>
       </c>
@@ -5331,7 +5341,7 @@
         <v>0.56531730099999999</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>184</v>
       </c>
@@ -5369,7 +5379,7 @@
         <v>0.66242807199999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -5407,7 +5417,7 @@
         <v>0.19257263599999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>188</v>
       </c>
@@ -5445,7 +5455,7 @@
         <v>0.22685629299999999</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -5483,7 +5493,7 @@
         <v>0.20422359900000001</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>192</v>
       </c>
@@ -5521,7 +5531,7 @@
         <v>0.28931545800000003</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>194</v>
       </c>
@@ -5559,7 +5569,7 @@
         <v>0.26960356299999999</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>196</v>
       </c>
@@ -5597,7 +5607,7 @@
         <v>0.20965584400000001</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>198</v>
       </c>
@@ -5635,7 +5645,7 @@
         <v>0.60683109499999999</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -5673,7 +5683,7 @@
         <v>0.190932877</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>203</v>
       </c>
@@ -5711,7 +5721,7 @@
         <v>0.19657658</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>205</v>
       </c>
@@ -5749,7 +5759,7 @@
         <v>0.25236414000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -5787,7 +5797,7 @@
         <v>0.467544876</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>209</v>
       </c>
@@ -5825,7 +5835,7 @@
         <v>0.25396285200000002</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>211</v>
       </c>
@@ -5863,7 +5873,7 @@
         <v>0.28849132199999999</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>213</v>
       </c>
@@ -5901,7 +5911,7 @@
         <v>0.62312773099999996</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -5939,7 +5949,7 @@
         <v>0.40099553900000001</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -5977,7 +5987,7 @@
         <v>0.34728293399999999</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -6015,7 +6025,7 @@
         <v>0.34281482400000002</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -6053,7 +6063,7 @@
         <v>0.38533516400000001</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>223</v>
       </c>
@@ -6091,7 +6101,7 @@
         <v>0.90327840999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>225</v>
       </c>
@@ -6129,7 +6139,7 @@
         <v>0.20291081799999999</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>227</v>
       </c>
@@ -6167,7 +6177,7 @@
         <v>0.997198264</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -6205,7 +6215,7 @@
         <v>0.22978557399999999</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>231</v>
       </c>
@@ -6243,7 +6253,7 @@
         <v>0.41528256699999999</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>233</v>
       </c>
@@ -6281,7 +6291,7 @@
         <v>0.86891464500000004</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>235</v>
       </c>
@@ -6319,7 +6329,7 @@
         <v>0.22552014300000001</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>237</v>
       </c>
@@ -6357,7 +6367,7 @@
         <v>0.41548464299999999</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>239</v>
       </c>
@@ -6395,7 +6405,7 @@
         <v>0.198583021</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>241</v>
       </c>
@@ -6433,7 +6443,7 @@
         <v>0.696914637</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>243</v>
       </c>
@@ -6471,7 +6481,7 @@
         <v>0.194225433</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>245</v>
       </c>
@@ -6509,7 +6519,7 @@
         <v>0.38174172200000001</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>247</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>0.347213357</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>249</v>
       </c>
@@ -6585,7 +6595,7 @@
         <v>0.73594038100000003</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>251</v>
       </c>
@@ -6623,7 +6633,7 @@
         <v>0.20697764299999999</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>253</v>
       </c>
@@ -6661,7 +6671,7 @@
         <v>0.19342088399999999</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>255</v>
       </c>
@@ -6699,7 +6709,7 @@
         <v>0.190638001</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>257</v>
       </c>
@@ -6737,7 +6747,7 @@
         <v>0.36029085500000002</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>259</v>
       </c>
@@ -6775,7 +6785,7 @@
         <v>0.387358706</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>261</v>
       </c>
@@ -6813,7 +6823,7 @@
         <v>0.25736213000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -6851,7 +6861,7 @@
         <v>0.728853007</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>265</v>
       </c>
@@ -6889,7 +6899,7 @@
         <v>0.295262829</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>267</v>
       </c>
@@ -6927,7 +6937,7 @@
         <v>0.407311372</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>269</v>
       </c>
@@ -6965,7 +6975,7 @@
         <v>0.19669056800000001</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>271</v>
       </c>
@@ -7003,7 +7013,7 @@
         <v>0.335099172</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>273</v>
       </c>
@@ -7041,7 +7051,7 @@
         <v>0.20886049400000001</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>275</v>
       </c>
@@ -7079,7 +7089,7 @@
         <v>0.20524916600000001</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>277</v>
       </c>
@@ -7117,7 +7127,7 @@
         <v>0.235958794</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>279</v>
       </c>
@@ -7155,7 +7165,7 @@
         <v>0.30889710399999998</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>281</v>
       </c>
@@ -7193,7 +7203,7 @@
         <v>0.192939324</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>283</v>
       </c>
@@ -7231,7 +7241,7 @@
         <v>0.20695392200000001</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>285</v>
       </c>
@@ -7269,7 +7279,7 @@
         <v>0.330272968</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>287</v>
       </c>
@@ -7307,7 +7317,7 @@
         <v>0.237013536</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -7345,7 +7355,7 @@
         <v>0.23443860899999999</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>291</v>
       </c>
@@ -7383,7 +7393,7 @@
         <v>0.251869285</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>293</v>
       </c>
@@ -7421,7 +7431,7 @@
         <v>0.30242839199999999</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>295</v>
       </c>
@@ -7459,7 +7469,7 @@
         <v>0.375563594</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>297</v>
       </c>
@@ -7497,7 +7507,7 @@
         <v>0.43239717700000002</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>299</v>
       </c>
@@ -7535,7 +7545,7 @@
         <v>0.25093504700000002</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>301</v>
       </c>
@@ -7573,7 +7583,7 @@
         <v>0.34201468200000001</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>303</v>
       </c>
@@ -7611,7 +7621,7 @@
         <v>0.53399279600000005</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>305</v>
       </c>
@@ -7649,7 +7659,7 @@
         <v>0.57185430800000003</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>307</v>
       </c>
@@ -7687,7 +7697,7 @@
         <v>0.52588586599999998</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>309</v>
       </c>
@@ -7725,7 +7735,7 @@
         <v>0.27945864100000001</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>311</v>
       </c>
@@ -7763,7 +7773,7 @@
         <v>0.33053641700000003</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>313</v>
       </c>
@@ -7801,7 +7811,7 @@
         <v>0.21394580499999999</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>315</v>
       </c>
@@ -7839,7 +7849,7 @@
         <v>0.74127199600000004</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>317</v>
       </c>
@@ -7877,7 +7887,7 @@
         <v>0.31208787999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>319</v>
       </c>
@@ -7915,7 +7925,7 @@
         <v>0.23846350499999999</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>321</v>
       </c>
@@ -7953,7 +7963,7 @@
         <v>0.65268244499999994</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>323</v>
       </c>
@@ -7991,7 +8001,7 @@
         <v>0.25220889499999999</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>325</v>
       </c>
@@ -8029,7 +8039,7 @@
         <v>0.756017995</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>327</v>
       </c>
@@ -8067,7 +8077,7 @@
         <v>0.18899550800000001</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>329</v>
       </c>
@@ -8105,7 +8115,7 @@
         <v>0.1921786</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>331</v>
       </c>
@@ -8143,7 +8153,7 @@
         <v>0.28263343699999999</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>333</v>
       </c>
@@ -8181,7 +8191,7 @@
         <v>0.47244747599999998</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>335</v>
       </c>
@@ -8219,7 +8229,7 @@
         <v>0.18771602600000001</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>337</v>
       </c>
@@ -8257,7 +8267,7 @@
         <v>0.55884010100000003</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>339</v>
       </c>
@@ -8295,7 +8305,7 @@
         <v>0.98223442000000005</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>341</v>
       </c>
@@ -8333,7 +8343,7 @@
         <v>0.229408525</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>343</v>
       </c>
@@ -8371,7 +8381,7 @@
         <v>0.220976802</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>345</v>
       </c>
@@ -8409,7 +8419,7 @@
         <v>0.225151025</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>347</v>
       </c>
@@ -8447,7 +8457,7 @@
         <v>0.220348242</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>349</v>
       </c>
@@ -8485,7 +8495,7 @@
         <v>0.19937788000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>351</v>
       </c>
@@ -8523,7 +8533,7 @@
         <v>0.47103065399999999</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>353</v>
       </c>
@@ -8561,7 +8571,7 @@
         <v>0.37826958700000002</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>355</v>
       </c>
@@ -8599,7 +8609,7 @@
         <v>0.90311748999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>357</v>
       </c>
@@ -8637,7 +8647,7 @@
         <v>0.477434953</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>359</v>
       </c>
@@ -8675,7 +8685,7 @@
         <v>0.240232948</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>361</v>
       </c>
@@ -8713,7 +8723,7 @@
         <v>0.20727762399999999</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>363</v>
       </c>
@@ -8751,7 +8761,7 @@
         <v>0.18738121999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>365</v>
       </c>
@@ -8789,7 +8799,7 @@
         <v>0.28540892899999998</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>367</v>
       </c>
@@ -8827,7 +8837,7 @@
         <v>0.212397898</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>369</v>
       </c>
@@ -8865,7 +8875,7 @@
         <v>0.69072920299999996</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>371</v>
       </c>
@@ -8903,7 +8913,7 @@
         <v>0.226231668</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>373</v>
       </c>
@@ -8941,7 +8951,7 @@
         <v>0.31573054699999997</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>375</v>
       </c>
@@ -8979,7 +8989,7 @@
         <v>0.62019947600000003</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>377</v>
       </c>
@@ -9017,7 +9027,7 @@
         <v>0.40871876899999998</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>379</v>
       </c>
@@ -9055,7 +9065,7 @@
         <v>0.20889311799999999</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>381</v>
       </c>
@@ -9093,7 +9103,7 @@
         <v>0.23043298200000001</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>383</v>
       </c>
@@ -9131,7 +9141,7 @@
         <v>0.38457783499999998</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>385</v>
       </c>
@@ -9169,7 +9179,7 @@
         <v>0.42744749799999998</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>387</v>
       </c>
@@ -9207,7 +9217,7 @@
         <v>0.27713596600000001</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>389</v>
       </c>
@@ -9245,7 +9255,7 @@
         <v>0.92694539799999998</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>391</v>
       </c>
@@ -9283,7 +9293,7 @@
         <v>0.211074821</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>393</v>
       </c>
@@ -9321,7 +9331,7 @@
         <v>0.36646952500000002</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>395</v>
       </c>
@@ -9359,7 +9369,7 @@
         <v>0.196525851</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>397</v>
       </c>
@@ -9397,7 +9407,7 @@
         <v>0.185729488</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>399</v>
       </c>
@@ -9435,7 +9445,7 @@
         <v>0.37762712399999998</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>402</v>
       </c>
@@ -9473,7 +9483,7 @@
         <v>0.99999792399999998</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>404</v>
       </c>
@@ -9511,7 +9521,7 @@
         <v>0.35312995600000002</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>406</v>
       </c>
@@ -9549,7 +9559,7 @@
         <v>0.30976582000000003</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>408</v>
       </c>
@@ -9587,7 +9597,7 @@
         <v>0.193144598</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>410</v>
       </c>
@@ -9625,7 +9635,7 @@
         <v>0.19539134799999999</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>412</v>
       </c>
@@ -9663,7 +9673,7 @@
         <v>0.33073484199999997</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>414</v>
       </c>
@@ -9701,7 +9711,7 @@
         <v>0.33436614799999997</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>416</v>
       </c>
@@ -9739,7 +9749,7 @@
         <v>0.53296923200000001</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>418</v>
       </c>
@@ -9777,7 +9787,7 @@
         <v>0.71832722800000004</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>420</v>
       </c>
@@ -9815,7 +9825,7 @@
         <v>0.19453941299999999</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>422</v>
       </c>
@@ -9853,7 +9863,7 @@
         <v>0.20658236499999999</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>424</v>
       </c>
@@ -9891,7 +9901,7 @@
         <v>0.64060452700000003</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>426</v>
       </c>
@@ -9929,7 +9939,7 @@
         <v>0.25257163300000002</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>428</v>
       </c>
@@ -9967,7 +9977,7 @@
         <v>0.21258152499999999</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>430</v>
       </c>
@@ -10005,7 +10015,7 @@
         <v>0.84421047400000004</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>432</v>
       </c>
@@ -10043,7 +10053,7 @@
         <v>0.19454253799999999</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>434</v>
       </c>
@@ -10081,7 +10091,7 @@
         <v>0.210923315</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>436</v>
       </c>
@@ -10119,7 +10129,7 @@
         <v>0.56343069499999998</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>438</v>
       </c>
@@ -10157,7 +10167,7 @@
         <v>0.245712228</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>440</v>
       </c>
@@ -10195,7 +10205,7 @@
         <v>0.26837336499999997</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>442</v>
       </c>
@@ -10233,7 +10243,7 @@
         <v>0.44232325700000003</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>444</v>
       </c>
@@ -10271,7 +10281,7 @@
         <v>0.268439704</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>446</v>
       </c>
@@ -10309,7 +10319,7 @@
         <v>0.25802857200000001</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>448</v>
       </c>
@@ -10347,7 +10357,7 @@
         <v>0.71866595300000002</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>450</v>
       </c>
@@ -10385,7 +10395,7 @@
         <v>0.20298744899999999</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>452</v>
       </c>
@@ -10423,7 +10433,7 @@
         <v>0.22074221199999999</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>454</v>
       </c>
@@ -10461,7 +10471,7 @@
         <v>0.21834590700000001</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>456</v>
       </c>
@@ -10499,7 +10509,7 @@
         <v>0.49590343999999997</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>458</v>
       </c>
@@ -10537,7 +10547,7 @@
         <v>0.230040625</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>460</v>
       </c>
@@ -10575,7 +10585,7 @@
         <v>0.22603379000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>462</v>
       </c>
@@ -10613,7 +10623,7 @@
         <v>0.99500640900000004</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>464</v>
       </c>
@@ -10651,7 +10661,7 @@
         <v>0.19863646900000001</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>466</v>
       </c>
@@ -10689,7 +10699,7 @@
         <v>0.25795229400000003</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>468</v>
       </c>
@@ -10727,7 +10737,7 @@
         <v>0.234779407</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>470</v>
       </c>
@@ -10765,7 +10775,7 @@
         <v>0.22868772100000001</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>472</v>
       </c>
@@ -10803,7 +10813,7 @@
         <v>0.20074213199999999</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>474</v>
       </c>
@@ -10841,7 +10851,7 @@
         <v>0.201315412</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>476</v>
       </c>
@@ -10879,7 +10889,7 @@
         <v>0.40873564800000001</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>478</v>
       </c>
@@ -10917,7 +10927,7 @@
         <v>0.33625572199999998</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>480</v>
       </c>
@@ -10955,7 +10965,7 @@
         <v>0.38620364499999998</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>482</v>
       </c>
@@ -10993,7 +11003,7 @@
         <v>0.30567097599999998</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>484</v>
       </c>
@@ -11031,7 +11041,7 @@
         <v>0.32492758399999999</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>487</v>
       </c>
@@ -11069,7 +11079,7 @@
         <v>0.86173392699999996</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>489</v>
       </c>
@@ -11107,7 +11117,7 @@
         <v>0.25715539599999998</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>491</v>
       </c>
@@ -11145,7 +11155,7 @@
         <v>0.27437367800000001</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>493</v>
       </c>
@@ -11183,7 +11193,7 @@
         <v>0.19658705700000001</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>495</v>
       </c>
@@ -11221,7 +11231,7 @@
         <v>0.24739223499999999</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>497</v>
       </c>
@@ -11259,7 +11269,7 @@
         <v>0.28286190300000003</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>499</v>
       </c>
@@ -11297,7 +11307,7 @@
         <v>0.193452291</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>501</v>
       </c>
@@ -11335,7 +11345,7 @@
         <v>0.23563063300000001</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>503</v>
       </c>
@@ -11373,7 +11383,7 @@
         <v>0.32773430799999997</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>505</v>
       </c>
@@ -11411,7 +11421,7 @@
         <v>0.28752050800000001</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>507</v>
       </c>
@@ -11449,7 +11459,7 @@
         <v>0.18905708600000001</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>509</v>
       </c>
@@ -11487,7 +11497,7 @@
         <v>0.303377275</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>511</v>
       </c>
@@ -11525,7 +11535,7 @@
         <v>0.80586839099999996</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>513</v>
       </c>
@@ -11563,7 +11573,7 @@
         <v>0.24078201599999999</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>515</v>
       </c>
@@ -11601,7 +11611,7 @@
         <v>0.23030685000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>517</v>
       </c>
@@ -11639,7 +11649,7 @@
         <v>0.19079539100000001</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>519</v>
       </c>
@@ -11677,7 +11687,7 @@
         <v>0.47738814800000001</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>521</v>
       </c>
@@ -11715,7 +11725,7 @@
         <v>0.20032677700000001</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>523</v>
       </c>
@@ -11753,7 +11763,7 @@
         <v>0.28417725999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>525</v>
       </c>
@@ -11791,7 +11801,7 @@
         <v>0.198620242</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>527</v>
       </c>
@@ -11829,7 +11839,7 @@
         <v>0.21619390699999999</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>529</v>
       </c>
@@ -11867,7 +11877,7 @@
         <v>0.192800104</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>531</v>
       </c>
@@ -11905,7 +11915,7 @@
         <v>0.42345578499999997</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>533</v>
       </c>
@@ -11943,7 +11953,7 @@
         <v>0.25925051500000001</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>535</v>
       </c>
@@ -11982,6 +11992,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DA_Business/project/p2_mailing/项目二：预测邮寄产品目录带来的收入增长/p1-mailinglist.xlsx
+++ b/DA_Business/project/p2_mailing/项目二：预测邮寄产品目录带来的收入增长/p1-mailinglist.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jun\udacity\DA_Business\project\p2_mailing\项目二：预测邮寄产品目录带来的收入增长\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA3828-15F6-4AA7-9FA3-CD749128D9EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755770A-A8EA-4BEC-98F4-5F70F6990134}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19174" windowHeight="7654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19174" windowHeight="7654" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p1-mailinglist" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="546">
   <si>
     <t>Name</t>
   </si>
@@ -1631,6 +1632,37 @@
   </si>
   <si>
     <t>1071 Worchester St</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>X Variable 2</t>
+  </si>
+  <si>
+    <t>X Variable 3</t>
+  </si>
+  <si>
+    <t>X Variable 4</t>
+  </si>
+  <si>
+    <t>pridict sale amount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net profit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum net profit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1961,7 +1993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2076,6 +2108,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2121,9 +2162,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2447,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -11995,4 +12038,8845 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC83F110-E005-4316-A693-375CB65FFDF5}">
+  <dimension ref="A1:N251"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="20.53515625" customWidth="1"/>
+    <col min="3" max="3" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>543</v>
+      </c>
+      <c r="N1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>IF(A2=$C$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>IF(A2=$D$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>IF(A2=$E$1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>$L$2+B2*$L$3+C2*$L$4+D2*$L$5+E2*$L$6</f>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H2">
+        <v>0.30503580699999999</v>
+      </c>
+      <c r="I2">
+        <f>G2*H2</f>
+        <v>108.298803852589</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="L2" s="2">
+        <v>585.30223622971323</v>
+      </c>
+      <c r="N2">
+        <f>0.5*I2-6.5</f>
+        <v>47.649401926294502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">IF(A3=$C$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="1">IF(A3=$D$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="2">IF(A3=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="3">$L$2+B3*$L$3+C3*$L$4+D3*$L$5+E3*$L$6</f>
+        <v>987.15946576969452</v>
+      </c>
+      <c r="H3">
+        <v>0.472724537</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="4">G3*H3</f>
+        <v>466.65450140114621</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="L3" s="2">
+        <v>66.976204923330215</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="5">0.5*I3-6.5</f>
+        <v>226.8272507005731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>622.94118384249418</v>
+      </c>
+      <c r="H4">
+        <v>0.57888185000000003</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>360.60934494393314</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-527.25650941475976</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>173.80467247196657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H5">
+        <v>0.30513781099999998</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>87.898046422485265</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="L5" s="2">
+        <v>-281.83876491504498</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>37.449023211242633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H6">
+        <v>0.38770585499999999</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>163.61674391300161</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-431.19448685053038</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>75.308371956500807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H7">
+        <v>0.267278293</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>206.41819866552024</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>96.709099332760118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>853.20705592303409</v>
+      </c>
+      <c r="H8">
+        <v>0.22173949400000001</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>189.1897008576033</v>
+      </c>
+      <c r="L8">
+        <v>6.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>88.094850428801649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H9">
+        <v>0.19344714900000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>136.44227871101381</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>61.721139355506907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H10">
+        <v>0.25065761399999997</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>176.79400398103419</v>
+      </c>
+      <c r="K10" t="s">
+        <v>545</v>
+      </c>
+      <c r="L10">
+        <f>SUM(N2:N251)</f>
+        <v>21987.435686545366</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>81.897001990517097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H11">
+        <v>0.26452315199999998</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>111.63209495467639</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>49.316047477338195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>191.9981366616139</v>
+      </c>
+      <c r="H12">
+        <v>0.190541402</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>36.583594140891513</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>11.791797070445757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>622.94118384249418</v>
+      </c>
+      <c r="H13">
+        <v>0.19154490499999999</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>119.32120987969807</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>53.160604939849037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H14">
+        <v>0.212284098</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>89.586557570219142</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>38.293278785109571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H15">
+        <v>0.27796209500000002</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>177.4355734207885</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>82.21778671039425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H16">
+        <v>0.26970955200000002</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>208.29585246836513</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>97.647926234182563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H17">
+        <v>0.238435971</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>84.653440226217768</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>35.826720113108884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H18">
+        <v>0.23297942399999999</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>113.92432290801555</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>50.462161454007777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>221.08395430251306</v>
+      </c>
+      <c r="H19">
+        <v>0.21210828600000001</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>46.89373860920837</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>16.946869304604185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>2393.6597691596289</v>
+      </c>
+      <c r="H20">
+        <v>0.22160676600000001</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>530.45120034777187</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>258.72560017388594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>504.3920860846589</v>
+      </c>
+      <c r="H21">
+        <v>0.19171627499999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>96.700171883630134</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>41.850085941815067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H22">
+        <v>0.326687748</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>181.62694692996922</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>84.313473464984611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H23">
+        <v>0.23341563700000001</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>82.87103909604329</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>34.935519548021645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H24">
+        <v>0.27304769400000001</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>151.8049554386364</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>69.402477719318199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H25">
+        <v>0.19725817300000001</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>70.033824540628672</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>28.516912270314336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H26">
+        <v>0.62724496600000001</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>348.72623429934185</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>167.86311714967093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H27">
+        <v>0.24007403299999999</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>69.155764171970347</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>28.077882085985173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>719.25464607637366</v>
+      </c>
+      <c r="H28">
+        <v>0.25712037599999998</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>184.93502503890412</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>85.967512519452058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H29">
+        <v>0.61307269399999997</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>391.35157982068597</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>189.17578991034298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>1389.0166953096759</v>
+      </c>
+      <c r="H30">
+        <v>0.38621956099999999</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>536.46541828417378</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>261.73270914208689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H31">
+        <v>0.38321151599999997</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>136.05402334073281</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>61.527011670366406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H32">
+        <v>0.29298455800000001</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>104.02017222417264</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>45.51008611208632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H33">
+        <v>0.24377779299999999</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>188.26883523128481</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>87.634417615642406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H34">
+        <v>0.40985869899999999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>289.08182483005487</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>138.04091241502744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>258.97434158494411</v>
+      </c>
+      <c r="H35">
+        <v>0.22907971799999999</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>59.325769139514669</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>23.162884569757335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H36">
+        <v>0.35448979200000003</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>273.77136949147962</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>130.38568474573981</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>1255.0642854630155</v>
+      </c>
+      <c r="H37">
+        <v>0.20120116699999999</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>252.52039889517982</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>119.76019944758991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H38">
+        <v>0.213904022</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>118.92314508195443</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>52.961572540977215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H39">
+        <v>0.22415280500000001</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>143.08670931931633</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>65.043354659658164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H40">
+        <v>0.19136229799999999</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>93.574015488045418</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>40.287007744022709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>689.91738876582463</v>
+      </c>
+      <c r="H41">
+        <v>0.49015270799999999</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>338.16487639985769</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>162.58243819992884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>1121.1118756163551</v>
+      </c>
+      <c r="H42">
+        <v>0.39429266099999999</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>442.04618471547366</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="5"/>
+        <v>214.52309235773683</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>1121.1118756163551</v>
+      </c>
+      <c r="H43">
+        <v>0.23105563900000001</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>259.03922081102547</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="5"/>
+        <v>123.01961040551274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H44">
+        <v>0.481368976</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>138.66322387294113</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="5"/>
+        <v>62.831611936470566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H45">
+        <v>0.18732610099999999</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>91.60036046540975</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="5"/>
+        <v>39.300180232704875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>1455.9929002330059</v>
+      </c>
+      <c r="H46">
+        <v>0.207404056</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>301.97883301552878</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="5"/>
+        <v>144.48941650776439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H47">
+        <v>0.28427938699999999</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>200.50813647737016</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="5"/>
+        <v>93.754068238685079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H48">
+        <v>0.202412487</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>129.20889698421973</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="5"/>
+        <v>58.104448492109867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>191.9981366616139</v>
+      </c>
+      <c r="H49">
+        <v>0.74854627200000001</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>143.7194894289976</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="5"/>
+        <v>65.359744714498802</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H50">
+        <v>0.21154409499999999</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>117.61110831714866</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="5"/>
+        <v>52.305554158574331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H51">
+        <v>0.190822935</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>54.968485040042744</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="5"/>
+        <v>20.984242520021372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H52">
+        <v>0.28486938000000001</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>101.13898893262929</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="5"/>
+        <v>44.069494466314644</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H53">
+        <v>0.36600523699999998</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>154.45881036036059</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="5"/>
+        <v>70.729405180180294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>504.3920860846589</v>
+      </c>
+      <c r="H54">
+        <v>0.25531713499999997</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>128.77994233580847</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="5"/>
+        <v>57.889971167904235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H55">
+        <v>0.50114359600000002</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>144.35950405877168</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="5"/>
+        <v>65.679752029385838</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>221.08395430251306</v>
+      </c>
+      <c r="H56">
+        <v>0.19502314300000001</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>43.11648763494447</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="5"/>
+        <v>15.058243817472235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>221.08395430251306</v>
+      </c>
+      <c r="H57">
+        <v>0.194825795</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>43.072857158730777</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="5"/>
+        <v>15.036428579365388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H58">
+        <v>0.99882496200000004</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>771.38942756640813</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="5"/>
+        <v>379.19471378320407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>622.94118384249418</v>
+      </c>
+      <c r="H59">
+        <v>0.268190172</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>167.06670324060215</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="5"/>
+        <v>77.033351620301076</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H60">
+        <v>0.21355267999999999</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>150.62312592698871</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="5"/>
+        <v>68.811562963494353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H61">
+        <v>0.18643868099999999</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>78.679466743298988</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="5"/>
+        <v>32.839733371649494</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H62">
+        <v>0.204701043</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>72.67631404426362</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="5"/>
+        <v>29.83815702213181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H63">
+        <v>0.19957677400000001</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>127.39873519862884</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="5"/>
+        <v>57.199367599314421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H64">
+        <v>0.23578850800000001</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>99.505714018852601</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="5"/>
+        <v>43.2528570094263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="3"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H65">
+        <v>0.206906695</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>115.03287632390894</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="5"/>
+        <v>51.016438161954468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H66">
+        <v>0.20274335399999999</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>85.56024368391607</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="5"/>
+        <v>36.280121841958035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="6">IF(A67=$C$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="7">IF(A67=$D$1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="8">IF(A67=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="9">$L$2+B67*$L$3+C67*$L$4+D67*$L$5+E67*$L$6</f>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H67">
+        <v>0.54112264600000004</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="10">G67*H67</f>
+        <v>381.66500392504247</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="11">0.5*I67-6.5</f>
+        <v>184.33250196252123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="9"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H68">
+        <v>0.25644796399999997</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="10"/>
+        <v>163.70214631219312</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="11"/>
+        <v>75.351073156096561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="9"/>
+        <v>125.02193173828368</v>
+      </c>
+      <c r="H69">
+        <v>0.24255331899999999</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="10"/>
+        <v>30.324484490912145</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="11"/>
+        <v>8.6622422454560724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="9"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H70">
+        <v>0.246686406</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
+        <v>71.060525391211016</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="11"/>
+        <v>29.030262695605508</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="9"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H71">
+        <v>0.1931495</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="10"/>
+        <v>94.447937202908321</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="11"/>
+        <v>40.72396860145416</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="9"/>
+        <v>191.9981366616139</v>
+      </c>
+      <c r="H72">
+        <v>0.200860496</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="10"/>
+        <v>38.564840960927555</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="11"/>
+        <v>12.782420480463777</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="9"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H73">
+        <v>0.31807552300000003</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="10"/>
+        <v>245.64874221661262</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="11"/>
+        <v>116.32437110830631</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="9"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H74">
+        <v>0.21379023799999999</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="10"/>
+        <v>165.10953929293782</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="11"/>
+        <v>76.054769646468912</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="9"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H75">
+        <v>0.434214031</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="10"/>
+        <v>241.40779459132031</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="11"/>
+        <v>114.20389729566016</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="9"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H76">
+        <v>0.56531730099999999</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="10"/>
+        <v>162.84539173918398</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="11"/>
+        <v>74.92269586959199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="9"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H77">
+        <v>0.66242807199999998</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="10"/>
+        <v>190.81913589598838</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="11"/>
+        <v>88.909567947994191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="9"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H78">
+        <v>0.19257263599999999</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="10"/>
+        <v>68.370288520062232</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="11"/>
+        <v>27.685144260031116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="9"/>
+        <v>920.18326084636431</v>
+      </c>
+      <c r="H79">
+        <v>0.22685629299999999</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
+        <v>208.74936343625825</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="11"/>
+        <v>97.874681718129125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>221.08395430251306</v>
+      </c>
+      <c r="H80">
+        <v>0.20422359900000001</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="10"/>
+        <v>45.150560828810754</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="11"/>
+        <v>16.075280414405377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="9"/>
+        <v>191.9981366616139</v>
+      </c>
+      <c r="H81">
+        <v>0.28931545800000003</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="10"/>
+        <v>55.548028843401418</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="11"/>
+        <v>21.274014421700709</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="9"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H82">
+        <v>0.26960356299999999</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="10"/>
+        <v>95.719068769182641</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="11"/>
+        <v>41.359534384591321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="9"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H83">
+        <v>0.20965584400000001</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="10"/>
+        <v>88.47740134750407</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="11"/>
+        <v>37.738700673752035</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="9"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H84">
+        <v>0.60683109499999999</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="10"/>
+        <v>256.09034939403057</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="11"/>
+        <v>121.54517469701528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="9"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H85">
+        <v>0.190932877</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="10"/>
+        <v>80.57607394317435</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="11"/>
+        <v>33.788036971587175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="9"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H86">
+        <v>0.19657658</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="10"/>
+        <v>138.64953117721009</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="11"/>
+        <v>62.824765588605047</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="9"/>
+        <v>920.18326084636431</v>
+      </c>
+      <c r="H87">
+        <v>0.25236414000000001</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="10"/>
+        <v>232.22125726588843</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="11"/>
+        <v>109.61062863294421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="9"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H88">
+        <v>0.467544876</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="10"/>
+        <v>298.45469819549118</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="11"/>
+        <v>142.72734909774559</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="9"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H89">
+        <v>0.25396285200000002</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="10"/>
+        <v>107.17551562150004</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="11"/>
+        <v>47.08775781075002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="9"/>
+        <v>125.02193173828368</v>
+      </c>
+      <c r="H90">
+        <v>0.28849132199999999</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="10"/>
+        <v>36.067742366171217</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="11"/>
+        <v>11.533871183085608</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="9"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H91">
+        <v>0.62312773099999996</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="10"/>
+        <v>439.50488795088751</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="11"/>
+        <v>213.25244397544375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="9"/>
+        <v>689.91738876582463</v>
+      </c>
+      <c r="H92">
+        <v>0.40099553900000001</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="10"/>
+        <v>276.65379517362442</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="11"/>
+        <v>131.82689758681221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="9"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H93">
+        <v>0.34728293399999999</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="10"/>
+        <v>244.94584240373899</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="11"/>
+        <v>115.9729212018695</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="9"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H94">
+        <v>0.34281482400000002</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="10"/>
+        <v>98.751292786419441</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="11"/>
+        <v>42.87564639320972</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="9"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H95">
+        <v>0.38533516400000001</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="10"/>
+        <v>136.80799560538549</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="11"/>
+        <v>61.903997802692743</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="9"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H96">
+        <v>0.90327840999999998</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="10"/>
+        <v>441.69300228280622</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="11"/>
+        <v>214.34650114140311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="9"/>
+        <v>125.02193173828368</v>
+      </c>
+      <c r="H97">
+        <v>0.20291081799999999</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="10"/>
+        <v>25.368302436955304</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="11"/>
+        <v>6.1841512184776519</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="9"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H98">
+        <v>0.997198264</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="10"/>
+        <v>554.40731182298714</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="11"/>
+        <v>270.70365591149357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="9"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H99">
+        <v>0.22978557399999999</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="10"/>
+        <v>96.972400419539909</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="11"/>
+        <v>41.986200209769954</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="9"/>
+        <v>221.08395430251306</v>
+      </c>
+      <c r="H100">
+        <v>0.41528256699999999</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="10"/>
+        <v>91.812312065258311</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="11"/>
+        <v>39.406156032629156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="9"/>
+        <v>191.9981366616139</v>
+      </c>
+      <c r="H101">
+        <v>0.86891464500000004</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="10"/>
+        <v>166.82999275798772</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="11"/>
+        <v>76.914996378993862</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="9"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H102">
+        <v>0.22552014300000001</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="10"/>
+        <v>95.172334925028423</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="11"/>
+        <v>41.086167462514211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="9"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H103">
+        <v>0.41548464299999999</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="10"/>
+        <v>147.51215701053735</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="11"/>
+        <v>67.256078505268675</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="9"/>
+        <v>571.36829100798911</v>
+      </c>
+      <c r="H104">
+        <v>0.198583021</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="10"/>
+        <v>113.46404133197362</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="11"/>
+        <v>50.232020665986809</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="9"/>
+        <v>987.15946576969452</v>
+      </c>
+      <c r="H105">
+        <v>0.696914637</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="10"/>
+        <v>687.96588074800059</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="11"/>
+        <v>337.48294037400029</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="9"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H106">
+        <v>0.194225433</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="10"/>
+        <v>123.98273612542724</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="11"/>
+        <v>55.491368062713619</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="9"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H107">
+        <v>0.38174172200000001</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="10"/>
+        <v>135.53219302292456</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="11"/>
+        <v>61.26609651146228</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="9"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H108">
+        <v>0.347213357</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="10"/>
+        <v>221.64173535478622</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="11"/>
+        <v>104.32086767739311</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="9"/>
+        <v>1054.1356706930246</v>
+      </c>
+      <c r="H109">
+        <v>0.73594038100000003</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="10"/>
+        <v>775.78100711551508</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="11"/>
+        <v>381.39050355775754</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="9"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H110">
+        <v>0.20697764299999999</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="10"/>
+        <v>115.07232092723329</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="11"/>
+        <v>51.036160463616646</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="9"/>
+        <v>221.08395430251306</v>
+      </c>
+      <c r="H111">
+        <v>0.19342088399999999</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="10"/>
+        <v>42.76225387940768</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="11"/>
+        <v>14.88112693970384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="9"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H112">
+        <v>0.190638001</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="10"/>
+        <v>121.69271865369934</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="11"/>
+        <v>54.346359326849672</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="9"/>
+        <v>987.15946576969452</v>
+      </c>
+      <c r="H113">
+        <v>0.36029085500000002</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="10"/>
+        <v>355.66452794350647</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="11"/>
+        <v>171.33226397175324</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="9"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H114">
+        <v>0.387358706</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="10"/>
+        <v>247.26829792617812</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="11"/>
+        <v>117.13414896308906</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="9"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H115">
+        <v>0.25736213000000002</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="10"/>
+        <v>108.61005366327169</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="11"/>
+        <v>47.805026831635843</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="9"/>
+        <v>571.36829100798911</v>
+      </c>
+      <c r="H116">
+        <v>0.728853007</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="10"/>
+        <v>416.44349700562395</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="11"/>
+        <v>201.72174850281198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="9"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H117">
+        <v>0.295262829</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="10"/>
+        <v>124.60462501790535</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="11"/>
+        <v>55.802312508952674</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="9"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H118">
+        <v>0.407311372</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="10"/>
+        <v>260.00497244643412</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="11"/>
+        <v>123.50248622321706</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="9"/>
+        <v>125.02193173828368</v>
+      </c>
+      <c r="H119">
+        <v>0.19669056800000001</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="10"/>
+        <v>24.590634766060248</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="11"/>
+        <v>5.7953173830301239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="9"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H120">
+        <v>0.335099172</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="10"/>
+        <v>236.35238285085276</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="11"/>
+        <v>111.67619142542638</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="9"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H121">
+        <v>0.20886049400000001</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="10"/>
+        <v>102.13043689722423</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="11"/>
+        <v>44.565218448612114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="9"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H122">
+        <v>0.20524916600000001</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="10"/>
+        <v>72.870917641290163</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="11"/>
+        <v>29.935458820645081</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="9"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H123">
+        <v>0.235958794</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="10"/>
+        <v>67.970327770377949</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="11"/>
+        <v>27.485163885188975</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="9"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H124">
+        <v>0.30889710399999998</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="10"/>
+        <v>197.18276614752432</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="11"/>
+        <v>92.091383073762159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="9"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H125">
+        <v>0.192939324</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="10"/>
+        <v>123.16175552410949</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="11"/>
+        <v>55.080877762054747</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="9"/>
+        <v>622.94118384249418</v>
+      </c>
+      <c r="H126">
+        <v>0.20695392200000001</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="10"/>
+        <v>128.9201211715272</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="11"/>
+        <v>57.9600605857636</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="9"/>
+        <v>973.22552054797052</v>
+      </c>
+      <c r="H127">
+        <v>0.330272968</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="10"/>
+        <v>321.43008120472319</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="11"/>
+        <v>154.2150406023616</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="9"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H128">
+        <v>0.237013536</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="10"/>
+        <v>115.89695838905745</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="11"/>
+        <v>51.448479194528723</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="9"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H129">
+        <v>0.23443860899999999</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="10"/>
+        <v>149.65259568894467</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="11"/>
+        <v>68.326297844472336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="9"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H130">
+        <v>0.251869285</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="10"/>
+        <v>72.553506341199295</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="11"/>
+        <v>29.776753170599648</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>29</v>
+      </c>
+      <c r="B131">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="12">IF(A131=$C$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D194" si="13">IF(A131=$D$1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="14">IF(A131=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="15">$L$2+B131*$L$3+C131*$L$4+D131*$L$5+E131*$L$6</f>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H131">
+        <v>0.30242839199999999</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I194" si="16">G131*H131</f>
+        <v>233.56451136100989</v>
+      </c>
+      <c r="N131">
+        <f t="shared" ref="N131:N194" si="17">0.5*I131-6.5</f>
+        <v>110.28225568050495</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="15"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H132">
+        <v>0.375563594</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="16"/>
+        <v>158.49255715404274</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="17"/>
+        <v>72.746278577021371</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="15"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H133">
+        <v>0.43239717700000002</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="16"/>
+        <v>276.01835799419047</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="17"/>
+        <v>131.50917899709523</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="15"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H134">
+        <v>0.25093504700000002</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="16"/>
+        <v>105.89774385479947</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="17"/>
+        <v>46.448871927399736</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="15"/>
+        <v>504.3920860846589</v>
+      </c>
+      <c r="H135">
+        <v>0.34201468200000001</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="16"/>
+        <v>172.50949892556125</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="17"/>
+        <v>79.754749462780623</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>29</v>
+      </c>
+      <c r="B136">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="15"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H136">
+        <v>0.53399279600000005</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="16"/>
+        <v>376.63617312605396</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="17"/>
+        <v>181.81808656302698</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="15"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H137">
+        <v>0.57185430800000003</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="16"/>
+        <v>317.93096829205325</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="17"/>
+        <v>152.46548414602663</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>29</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="15"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H138">
+        <v>0.52588586599999998</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="16"/>
+        <v>335.69634804917536</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="17"/>
+        <v>161.34817402458768</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>29</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="15"/>
+        <v>504.3920860846589</v>
+      </c>
+      <c r="H139">
+        <v>0.27945864100000001</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="16"/>
+        <v>140.95672690837378</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="17"/>
+        <v>63.978363454186891</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>29</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="15"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H140">
+        <v>0.33053641700000003</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="16"/>
+        <v>210.99610249680939</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="17"/>
+        <v>98.998051248404693</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="15"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H141">
+        <v>0.21394580499999999</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="16"/>
+        <v>90.287818810334912</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="17"/>
+        <v>38.643909405167456</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="15"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H142">
+        <v>0.74127199600000004</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="16"/>
+        <v>362.47368452148476</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="17"/>
+        <v>174.73684226074238</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="15"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H143">
+        <v>0.31208787999999998</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="16"/>
+        <v>131.70500801519125</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="17"/>
+        <v>59.352504007595627</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>29</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="15"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H144">
+        <v>0.23846350499999999</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="16"/>
+        <v>152.22186589724063</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="17"/>
+        <v>69.610932948620317</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="15"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H145">
+        <v>0.65268244499999994</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="16"/>
+        <v>275.44019540297307</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="17"/>
+        <v>131.22009770148654</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="15"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H146">
+        <v>0.25220889499999999</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="16"/>
+        <v>194.78014921818334</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="17"/>
+        <v>90.89007460909167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="15"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H147">
+        <v>0.756017995</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="16"/>
+        <v>319.04909633499324</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="17"/>
+        <v>153.02454816749662</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="15"/>
+        <v>1255.0642854630155</v>
+      </c>
+      <c r="H148">
+        <v>0.18899550800000001</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="16"/>
+        <v>237.20151220373964</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="17"/>
+        <v>112.10075610186982</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="15"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H149">
+        <v>0.1921786</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="16"/>
+        <v>55.358998115799643</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="17"/>
+        <v>21.179499057899822</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="15"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H150">
+        <v>0.28263343699999999</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="16"/>
+        <v>119.27486285416163</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="17"/>
+        <v>53.137431427080813</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="15"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H151">
+        <v>0.47244747599999998</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="16"/>
+        <v>231.02151206666616</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="17"/>
+        <v>109.01075603333308</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>29</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="15"/>
+        <v>437.41588116132868</v>
+      </c>
+      <c r="H152">
+        <v>0.18771602600000001</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="16"/>
+        <v>82.109970920892891</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="17"/>
+        <v>34.554985460446446</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="15"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H153">
+        <v>0.55884010100000003</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="16"/>
+        <v>235.83754672374747</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="17"/>
+        <v>111.41877336187373</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="15"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H154">
+        <v>0.98223442000000005</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="16"/>
+        <v>692.79026951796027</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="17"/>
+        <v>339.89513475898013</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="15"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H155">
+        <v>0.229408525</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="16"/>
+        <v>127.54310576550155</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="17"/>
+        <v>57.271552882750775</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="15"/>
+        <v>221.08395430251306</v>
+      </c>
+      <c r="H156">
+        <v>0.220976802</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="16"/>
+        <v>48.854425195283476</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="17"/>
+        <v>17.927212597641738</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="15"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H157">
+        <v>0.225151025</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="16"/>
+        <v>79.936801300459663</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="17"/>
+        <v>33.468400650229832</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>29</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="15"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H158">
+        <v>0.220348242</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="16"/>
+        <v>170.17426549021746</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="17"/>
+        <v>78.587132745108732</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="15"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H159">
+        <v>0.19937788000000001</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="16"/>
+        <v>70.786397606970212</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="17"/>
+        <v>28.893198803485106</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="15"/>
+        <v>221.08395430251306</v>
+      </c>
+      <c r="H160">
+        <v>0.47103065399999999</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="16"/>
+        <v>104.13731958401884</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="17"/>
+        <v>45.56865979200942</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>42</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="15"/>
+        <v>191.9981366616139</v>
+      </c>
+      <c r="H161">
+        <v>0.37826958700000002</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="16"/>
+        <v>72.627055859758258</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="17"/>
+        <v>29.813527929879129</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="15"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H162">
+        <v>0.90311748999999997</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="16"/>
+        <v>320.63955004912754</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="17"/>
+        <v>153.81977502456377</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>29</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="15"/>
+        <v>370.43967623799847</v>
+      </c>
+      <c r="H163">
+        <v>0.477434953</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="16"/>
+        <v>176.86084941402402</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="17"/>
+        <v>81.930424707012008</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="15"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H164">
+        <v>0.240232948</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="16"/>
+        <v>69.201541252173726</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="17"/>
+        <v>28.100770626086863</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165">
+        <v>9</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="15"/>
+        <v>1188.0880805396851</v>
+      </c>
+      <c r="H165">
+        <v>0.20727762399999999</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="16"/>
+        <v>246.26407443698656</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="17"/>
+        <v>116.63203721849328</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>29</v>
+      </c>
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="15"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H166">
+        <v>0.18738121999999999</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="16"/>
+        <v>132.16385341739925</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="17"/>
+        <v>59.581926708699626</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="15"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H167">
+        <v>0.28540892899999998</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="16"/>
+        <v>182.1892189168027</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="17"/>
+        <v>84.594609458401351</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168">
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="15"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H168">
+        <v>0.212397898</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="16"/>
+        <v>118.08579288404479</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="17"/>
+        <v>52.542896442022396</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>42</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="15"/>
+        <v>191.9981366616139</v>
+      </c>
+      <c r="H169">
+        <v>0.69072920299999996</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="16"/>
+        <v>132.61871991376165</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="17"/>
+        <v>59.809359956880826</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170">
+        <v>11</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="15"/>
+        <v>1322.0404903863455</v>
+      </c>
+      <c r="H170">
+        <v>0.226231668</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="16"/>
+        <v>299.08742530364088</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="17"/>
+        <v>143.04371265182044</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>29</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="15"/>
+        <v>571.36829100798911</v>
+      </c>
+      <c r="H171">
+        <v>0.31573054699999997</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="16"/>
+        <v>180.39842305840756</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="17"/>
+        <v>83.699211529203779</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="15"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H172">
+        <v>0.62019947600000003</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="16"/>
+        <v>261.73197420418063</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="17"/>
+        <v>124.36598710209032</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>29</v>
+      </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="15"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H173">
+        <v>0.40871876899999998</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="16"/>
+        <v>260.90337657497435</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="17"/>
+        <v>123.95168828748717</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="15"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H174">
+        <v>0.20889311799999999</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="16"/>
+        <v>74.164653110504261</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="17"/>
+        <v>30.582326555252131</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="15"/>
+        <v>622.94118384249418</v>
+      </c>
+      <c r="H175">
+        <v>0.23043298200000001</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="16"/>
+        <v>143.54619460343616</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="17"/>
+        <v>65.273097301718082</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>42</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="15"/>
+        <v>191.9981366616139</v>
+      </c>
+      <c r="H176">
+        <v>0.38457783499999998</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="16"/>
+        <v>73.838227721357597</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="17"/>
+        <v>30.419113860678799</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177">
+        <v>9</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="15"/>
+        <v>1188.0880805396851</v>
+      </c>
+      <c r="H177">
+        <v>0.42744749799999998</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="16"/>
+        <v>507.84527743031083</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="17"/>
+        <v>247.42263871515541</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>29</v>
+      </c>
+      <c r="B178">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="15"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H178">
+        <v>0.27713596600000001</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="16"/>
+        <v>214.03124902159138</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="17"/>
+        <v>100.51562451079569</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>29</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="15"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H179">
+        <v>0.92694539799999998</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="16"/>
+        <v>591.7104928421661</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="17"/>
+        <v>289.35524642108305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="15"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H180">
+        <v>0.211074821</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="16"/>
+        <v>103.21321794218009</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="17"/>
+        <v>45.106608971090047</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="15"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H181">
+        <v>0.36646952500000002</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="16"/>
+        <v>203.74422174114113</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="17"/>
+        <v>95.372110870570566</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>42</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="15"/>
+        <v>125.02193173828368</v>
+      </c>
+      <c r="H182">
+        <v>0.196525851</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="16"/>
+        <v>24.570041528530112</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="17"/>
+        <v>5.785020764265056</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>29</v>
+      </c>
+      <c r="B183">
+        <v>6</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="15"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H183">
+        <v>0.185729488</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="16"/>
+        <v>130.99885264553521</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="17"/>
+        <v>58.999426322767604</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>29</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="15"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H184">
+        <v>0.37762712399999998</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="16"/>
+        <v>241.0561961197738</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="17"/>
+        <v>114.0280980598869</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>29</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="15"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H185">
+        <v>0.99999792399999998</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="16"/>
+        <v>638.34317072814576</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="17"/>
+        <v>312.67158536407288</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>42</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="15"/>
+        <v>125.02193173828368</v>
+      </c>
+      <c r="H186">
+        <v>0.35312995600000002</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="16"/>
+        <v>44.14898925377512</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="17"/>
+        <v>15.57449462688756</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>29</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="15"/>
+        <v>839.27311070131009</v>
+      </c>
+      <c r="H187">
+        <v>0.30976582000000003</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="16"/>
+        <v>259.97812334034211</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="17"/>
+        <v>123.48906167017105</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="15"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H188">
+        <v>0.193144598</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="16"/>
+        <v>68.573355828973732</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="17"/>
+        <v>27.786677914486866</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="15"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H189">
+        <v>0.19539134799999999</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="16"/>
+        <v>82.457604744019605</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="17"/>
+        <v>34.728802372009802</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>29</v>
+      </c>
+      <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="15"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H190">
+        <v>0.33073484199999997</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="16"/>
+        <v>211.12276600341451</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="17"/>
+        <v>99.061383001707256</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="15"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H191">
+        <v>0.33436614799999997</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="16"/>
+        <v>141.10671712835699</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="17"/>
+        <v>64.053358564178495</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>29</v>
+      </c>
+      <c r="B192">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="15"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H192">
+        <v>0.53296923200000001</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="16"/>
+        <v>411.6104887484662</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="17"/>
+        <v>199.3052443742331</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193">
+        <v>8</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="15"/>
+        <v>1121.1118756163551</v>
+      </c>
+      <c r="H193">
+        <v>0.71832722800000004</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="16"/>
+        <v>805.32518588937717</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="17"/>
+        <v>396.16259294468858</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>29</v>
+      </c>
+      <c r="B194">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="15"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H194">
+        <v>0.19453941299999999</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="16"/>
+        <v>124.18316353025975</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="17"/>
+        <v>55.591581765129874</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:C251" si="18">IF(A195=$C$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D251" si="19">IF(A195=$D$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E251" si="20">IF(A195=$E$1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G251" si="21">$L$2+B195*$L$3+C195*$L$4+D195*$L$5+E195*$L$6</f>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H195">
+        <v>0.20658236499999999</v>
+      </c>
+      <c r="I195">
+        <f t="shared" ref="I195:I251" si="22">G195*H195</f>
+        <v>73.344251766937475</v>
+      </c>
+      <c r="N195">
+        <f t="shared" ref="N195:N251" si="23">0.5*I195-6.5</f>
+        <v>30.172125883468738</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="21"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H196">
+        <v>0.64060452700000003</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="22"/>
+        <v>313.2484222739111</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="23"/>
+        <v>150.12421113695555</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>29</v>
+      </c>
+      <c r="B197">
+        <v>6</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="21"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H197">
+        <v>0.25257163300000002</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="22"/>
+        <v>178.14400120356333</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="23"/>
+        <v>82.572000601781667</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="21"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H198">
+        <v>0.21258152499999999</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="22"/>
+        <v>75.474171721286623</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="23"/>
+        <v>31.237085860643312</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>42</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="21"/>
+        <v>258.97434158494411</v>
+      </c>
+      <c r="H199">
+        <v>0.84421047400000004</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="22"/>
+        <v>218.62885166326359</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="23"/>
+        <v>102.81442583163179</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>42</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="21"/>
+        <v>191.9981366616139</v>
+      </c>
+      <c r="H200">
+        <v>0.19454253799999999</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="22"/>
+        <v>37.35180479742121</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="23"/>
+        <v>12.175902398710605</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201">
+        <v>11</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="21"/>
+        <v>1322.0404903863455</v>
+      </c>
+      <c r="H201">
+        <v>0.210923315</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="22"/>
+        <v>278.84916279651361</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="23"/>
+        <v>132.92458139825681</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="21"/>
+        <v>853.20705592303409</v>
+      </c>
+      <c r="H202">
+        <v>0.56343069499999998</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="22"/>
+        <v>480.72304449761896</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="23"/>
+        <v>233.86152224880948</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>29</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="21"/>
+        <v>370.43967623799847</v>
+      </c>
+      <c r="H203">
+        <v>0.245712228</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="22"/>
+        <v>91.021558188037261</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="23"/>
+        <v>39.010779094018631</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="21"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H204">
+        <v>0.26837336499999997</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="22"/>
+        <v>95.282303744079044</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="23"/>
+        <v>41.141151872039522</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="21"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H205">
+        <v>0.44232325700000003</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="22"/>
+        <v>186.66597404708733</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="23"/>
+        <v>86.832987023543666</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="21"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H206">
+        <v>0.268439704</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="22"/>
+        <v>113.28492912610245</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="23"/>
+        <v>50.142464563051227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="21"/>
+        <v>786.23085099970388</v>
+      </c>
+      <c r="H207">
+        <v>0.25802857200000001</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="22"/>
+        <v>202.87002374579836</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="23"/>
+        <v>94.935011872899182</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="21"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H208">
+        <v>0.71866595300000002</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="22"/>
+        <v>303.28606513046924</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="23"/>
+        <v>145.14303256523462</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209">
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="21"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H209">
+        <v>0.20298744899999999</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="22"/>
+        <v>99.258583823051865</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="23"/>
+        <v>43.129291911525932</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>29</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="21"/>
+        <v>437.41588116132868</v>
+      </c>
+      <c r="H210">
+        <v>0.22074221199999999</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="22"/>
+        <v>96.556149171480826</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="23"/>
+        <v>41.778074585740413</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>29</v>
+      </c>
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="21"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H211">
+        <v>0.21834590700000001</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="22"/>
+        <v>139.37990794258172</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="23"/>
+        <v>63.189953971290862</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="21"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H212">
+        <v>0.49590343999999997</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="22"/>
+        <v>142.85002388704342</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="23"/>
+        <v>64.92501194352171</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="21"/>
+        <v>221.08395430251306</v>
+      </c>
+      <c r="H213">
+        <v>0.230040625</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="22"/>
+        <v>50.858291025221547</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="23"/>
+        <v>18.929145512610773</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>42</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="21"/>
+        <v>125.02193173828368</v>
+      </c>
+      <c r="H214">
+        <v>0.22603379000000001</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="22"/>
+        <v>28.259181063925549</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="23"/>
+        <v>7.6295905319627746</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="21"/>
+        <v>488.98877399583392</v>
+      </c>
+      <c r="H215">
+        <v>0.99500640900000004</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="22"/>
+        <v>486.54696405490733</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="23"/>
+        <v>236.77348202745367</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216">
+        <v>6</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="21"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H216">
+        <v>0.19863646900000001</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="22"/>
+        <v>110.43492030016222</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="23"/>
+        <v>48.717460150081109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>42</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="21"/>
+        <v>125.02193173828368</v>
+      </c>
+      <c r="H217">
+        <v>0.25795229400000003</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="22"/>
+        <v>32.249694092201686</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="23"/>
+        <v>9.6248470461008431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>29</v>
+      </c>
+      <c r="B218">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="21"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H218">
+        <v>0.234779407</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="22"/>
+        <v>165.594775891479</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="23"/>
+        <v>76.297387945739501</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>29</v>
+      </c>
+      <c r="B219">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="21"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H219">
+        <v>0.22868772100000001</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="22"/>
+        <v>176.61481931771792</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="23"/>
+        <v>81.807409658858958</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220">
+        <v>6</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="21"/>
+        <v>987.15946576969452</v>
+      </c>
+      <c r="H220">
+        <v>0.20074213199999999</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="22"/>
+        <v>198.16449578258948</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="23"/>
+        <v>92.582247891294742</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221">
+        <v>6</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="21"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H221">
+        <v>0.201315412</v>
+      </c>
+      <c r="I221">
+        <f t="shared" si="22"/>
+        <v>111.92431878868285</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="23"/>
+        <v>49.462159394341427</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="21"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H222">
+        <v>0.40873564800000001</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="22"/>
+        <v>172.49158088399457</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="23"/>
+        <v>79.745790441997286</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="21"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H223">
+        <v>0.33625572199999998</v>
+      </c>
+      <c r="I223">
+        <f t="shared" si="22"/>
+        <v>119.38300896323524</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="23"/>
+        <v>53.191504481617621</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>18</v>
+      </c>
+      <c r="B224">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="21"/>
+        <v>1054.1356706930246</v>
+      </c>
+      <c r="H224">
+        <v>0.38620364499999998</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="22"/>
+        <v>407.11103834616574</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="23"/>
+        <v>197.05551917308287</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="21"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H225">
+        <v>0.30567097599999998</v>
+      </c>
+      <c r="I225">
+        <f t="shared" si="22"/>
+        <v>128.99699387265963</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="23"/>
+        <v>57.998496936329815</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="21"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H226">
+        <v>0.32492758399999999</v>
+      </c>
+      <c r="I226">
+        <f t="shared" si="22"/>
+        <v>137.12352448636176</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="23"/>
+        <v>62.06176224318088</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="21"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H227">
+        <v>0.86173392699999996</v>
+      </c>
+      <c r="I227">
+        <f t="shared" si="22"/>
+        <v>363.66254839020735</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="23"/>
+        <v>175.33127419510367</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>29</v>
+      </c>
+      <c r="B228">
+        <v>6</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="21"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H228">
+        <v>0.25715539599999998</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="22"/>
+        <v>181.37702413527492</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="23"/>
+        <v>84.188512067637461</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229">
+        <v>6</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="21"/>
+        <v>987.15946576969452</v>
+      </c>
+      <c r="H229">
+        <v>0.27437367800000001</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="22"/>
+        <v>270.85057339574621</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="23"/>
+        <v>128.9252866978731</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="21"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H230">
+        <v>0.19658705700000001</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="22"/>
+        <v>56.628898941159932</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="23"/>
+        <v>21.814449470579966</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="21"/>
+        <v>221.08395430251306</v>
+      </c>
+      <c r="H231">
+        <v>0.24739223499999999</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="22"/>
+        <v>54.694453577536571</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="23"/>
+        <v>20.847226788768285</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>29</v>
+      </c>
+      <c r="B232">
+        <v>6</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="21"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H232">
+        <v>0.28286190300000003</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="22"/>
+        <v>199.5083556690399</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="23"/>
+        <v>93.25417783451995</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="21"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H233">
+        <v>0.193452291</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="22"/>
+        <v>107.55269888767901</v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="23"/>
+        <v>47.276349443839507</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>18</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="21"/>
+        <v>786.23085099970388</v>
+      </c>
+      <c r="H234">
+        <v>0.23563063300000001</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="22"/>
+        <v>185.26007310518892</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="23"/>
+        <v>86.130036552594461</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="21"/>
+        <v>221.08395430251306</v>
+      </c>
+      <c r="H235">
+        <v>0.32773430799999997</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="22"/>
+        <v>72.456796773237741</v>
+      </c>
+      <c r="N235">
+        <f t="shared" si="23"/>
+        <v>29.728398386618871</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>29</v>
+      </c>
+      <c r="B236">
+        <v>6</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="21"/>
+        <v>705.32070085464954</v>
+      </c>
+      <c r="H236">
+        <v>0.28752050800000001</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="22"/>
+        <v>202.79416621264488</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="23"/>
+        <v>94.897083106322441</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>29</v>
+      </c>
+      <c r="B237">
+        <v>5</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="21"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H237">
+        <v>0.18905708600000001</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="22"/>
+        <v>120.6835502649141</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="23"/>
+        <v>53.841775132457052</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="21"/>
+        <v>288.06015922584328</v>
+      </c>
+      <c r="H238">
+        <v>0.303377275</v>
+      </c>
+      <c r="I238">
+        <f t="shared" si="22"/>
+        <v>87.39090614200245</v>
+      </c>
+      <c r="N238">
+        <f t="shared" si="23"/>
+        <v>37.195453071001225</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>29</v>
+      </c>
+      <c r="B239">
+        <v>9</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="21"/>
+        <v>906.24931562464008</v>
+      </c>
+      <c r="H239">
+        <v>0.80586839099999996</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="22"/>
+        <v>730.31767782727979</v>
+      </c>
+      <c r="N239">
+        <f t="shared" si="23"/>
+        <v>358.6588389136399</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>29</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="21"/>
+        <v>571.36829100798911</v>
+      </c>
+      <c r="H240">
+        <v>0.24078201599999999</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="22"/>
+        <v>137.57520898737829</v>
+      </c>
+      <c r="N240">
+        <f t="shared" si="23"/>
+        <v>62.287604493689145</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>29</v>
+      </c>
+      <c r="B241">
+        <v>5</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="21"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H241">
+        <v>0.23030685000000001</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="22"/>
+        <v>147.01511007277998</v>
+      </c>
+      <c r="N241">
+        <f t="shared" si="23"/>
+        <v>67.007555036389988</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="21"/>
+        <v>422.01256907250371</v>
+      </c>
+      <c r="H242">
+        <v>0.19079539100000001</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="22"/>
+        <v>80.51805312310286</v>
+      </c>
+      <c r="N242">
+        <f t="shared" si="23"/>
+        <v>33.75902656155143</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>29</v>
+      </c>
+      <c r="B243">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="21"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H243">
+        <v>0.47738814800000001</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="22"/>
+        <v>304.73809669864607</v>
+      </c>
+      <c r="N243">
+        <f t="shared" si="23"/>
+        <v>145.86904834932304</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>29</v>
+      </c>
+      <c r="B244">
+        <v>8</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="21"/>
+        <v>839.27311070131009</v>
+      </c>
+      <c r="H244">
+        <v>0.20032677700000001</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="22"/>
+        <v>168.12887728955766</v>
+      </c>
+      <c r="N244">
+        <f t="shared" si="23"/>
+        <v>77.564438644778832</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>29</v>
+      </c>
+      <c r="B245">
+        <v>5</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="21"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H245">
+        <v>0.28417725999999999</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="22"/>
+        <v>181.40298978984347</v>
+      </c>
+      <c r="N245">
+        <f t="shared" si="23"/>
+        <v>84.201494894921737</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>42</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="21"/>
+        <v>191.9981366616139</v>
+      </c>
+      <c r="H246">
+        <v>0.198620242</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="22"/>
+        <v>38.134716367278827</v>
+      </c>
+      <c r="N246">
+        <f t="shared" si="23"/>
+        <v>12.567358183639413</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>29</v>
+      </c>
+      <c r="B247">
+        <v>18</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="21"/>
+        <v>1509.0351599346122</v>
+      </c>
+      <c r="H247">
+        <v>0.21619390699999999</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="22"/>
+        <v>326.24420702663366</v>
+      </c>
+      <c r="N247">
+        <f t="shared" si="23"/>
+        <v>156.62210351331683</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="21"/>
+        <v>355.03636414917349</v>
+      </c>
+      <c r="H248">
+        <v>0.192800104</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="22"/>
+        <v>68.451047931742522</v>
+      </c>
+      <c r="N248">
+        <f t="shared" si="23"/>
+        <v>27.725523965871261</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249">
+        <v>6</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="21"/>
+        <v>555.9649789191642</v>
+      </c>
+      <c r="H249">
+        <v>0.42345578499999997</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="22"/>
+        <v>235.42658658072313</v>
+      </c>
+      <c r="N249">
+        <f t="shared" si="23"/>
+        <v>111.21329329036156</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>29</v>
+      </c>
+      <c r="B250">
+        <v>7</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="21"/>
+        <v>772.29690577797965</v>
+      </c>
+      <c r="H250">
+        <v>0.25925051500000001</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="22"/>
+        <v>200.21837055584771</v>
+      </c>
+      <c r="N250">
+        <f t="shared" si="23"/>
+        <v>93.609185277923856</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>29</v>
+      </c>
+      <c r="B251">
+        <v>5</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="21"/>
+        <v>638.34449593131933</v>
+      </c>
+      <c r="H251">
+        <v>0.20365002500000001</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="22"/>
+        <v>129.9988725550256</v>
+      </c>
+      <c r="N251">
+        <f t="shared" si="23"/>
+        <v>58.4994362775128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DA_Business/project/p2_mailing/项目二：预测邮寄产品目录带来的收入增长/p1-mailinglist.xlsx
+++ b/DA_Business/project/p2_mailing/项目二：预测邮寄产品目录带来的收入增长/p1-mailinglist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jun\udacity\DA_Business\project\p2_mailing\项目二：预测邮寄产品目录带来的收入增长\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jun\codes\udacity\DA_Business\project\p2_mailing\项目二：预测邮寄产品目录带来的收入增长\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755770A-A8EA-4BEC-98F4-5F70F6990134}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19174" windowHeight="7654" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="p1-mailinglist" sheetId="1" r:id="rId1"/>
@@ -1668,7 +1667,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2487,16 +2486,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0.30503580699999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>0.472724537</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>0.57888185000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0.30513781099999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>0.38770585499999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>0.267278293</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>0.22173949400000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>0.19344714900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>0.25065761399999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0.26452315199999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0.190541402</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>0.19154490499999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>0.212284098</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0.27796209500000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0.26970955200000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0.238435971</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>0.23297942399999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0.21210828600000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>0.22160676600000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0.19171627499999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0.326687748</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0.23341563700000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0.27304769400000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>0.19725817300000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0.62724496600000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0.24007403299999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0.25712037599999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0.61307269399999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0.38621956099999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>0.38321151599999997</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0.29298455800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>0.24377779299999999</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0.40985869899999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>0.22907971799999999</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0.35448979200000003</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0.20120116699999999</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>0.213904022</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0.22415280500000001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>0.19136229799999999</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>0.49015270799999999</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>0.39429266099999999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0.23105563900000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0.481368976</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>0.18732610099999999</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0.207404056</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>0.28427938699999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>123</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0.202412487</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>0.74854627200000001</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>0.21154409499999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0.190822935</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0.28486938000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0.36600523699999998</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>0.25531713499999997</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0.50114359600000002</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0.19502314300000001</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>0.194825795</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>0.99882496200000004</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0.268190172</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>0.21355267999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>151</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>0.18643868099999999</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0.204701043</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>155</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0.19957677400000001</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>157</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>0.23578850800000001</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>160</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>0.206906695</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>162</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>0.20274335399999999</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>164</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>0.54112264600000004</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>166</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0.25644796399999997</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>168</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0.24255331899999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>170</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>0.246686406</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>172</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>0.1931495</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>174</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0.200860496</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>0.31807552300000003</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>178</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0.21379023799999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>180</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>0.434214031</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>182</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0.56531730099999999</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>184</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>0.66242807199999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>0.19257263599999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>188</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>0.22685629299999999</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0.20422359900000001</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>192</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>0.28931545800000003</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>194</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>0.26960356299999999</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>196</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0.20965584400000001</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>198</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0.60683109499999999</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>0.190932877</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>203</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>0.19657658</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>205</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>0.25236414000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>0.467544876</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>209</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>0.25396285200000002</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>211</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>0.28849132199999999</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>213</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>0.62312773099999996</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>0.40099553900000001</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>0.34728293399999999</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>0.34281482400000002</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>0.38533516400000001</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>223</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>0.90327840999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>225</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>0.20291081799999999</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>227</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>0.997198264</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>0.22978557399999999</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>231</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>0.41528256699999999</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>233</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>0.86891464500000004</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>235</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>0.22552014300000001</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>237</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>0.41548464299999999</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>239</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>0.198583021</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>241</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>0.696914637</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>243</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>0.194225433</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>245</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>0.38174172200000001</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>247</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>0.347213357</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>249</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>0.73594038100000003</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>251</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>0.20697764299999999</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>253</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>0.19342088399999999</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>255</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>0.190638001</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>257</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>0.36029085500000002</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>259</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>0.387358706</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>261</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>0.25736213000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>0.728853007</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>265</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>0.295262829</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>267</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>0.407311372</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>269</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>0.19669056800000001</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>271</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>0.335099172</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>273</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>0.20886049400000001</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>275</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>0.20524916600000001</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>277</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>0.235958794</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>279</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>0.30889710399999998</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>281</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>0.192939324</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>283</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>0.20695392200000001</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>285</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>0.330272968</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>287</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>0.237013536</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>0.23443860899999999</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>291</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>0.251869285</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>293</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>0.30242839199999999</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>295</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>0.375563594</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>297</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>0.43239717700000002</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>299</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>0.25093504700000002</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>301</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>0.34201468200000001</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>303</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>0.53399279600000005</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>305</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0.57185430800000003</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>307</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>0.52588586599999998</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>309</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>0.27945864100000001</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>311</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>0.33053641700000003</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>313</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>0.21394580499999999</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>315</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>0.74127199600000004</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>317</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>0.31208787999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>319</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>0.23846350499999999</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>321</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>0.65268244499999994</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>323</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>0.25220889499999999</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>325</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>0.756017995</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>327</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0.18899550800000001</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>329</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>0.1921786</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>331</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>0.28263343699999999</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>333</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>0.47244747599999998</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>335</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>0.18771602600000001</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>337</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>0.55884010100000003</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>339</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>0.98223442000000005</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>341</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>0.229408525</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>343</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>0.220976802</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>345</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>0.225151025</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>347</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>0.220348242</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>349</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>0.19937788000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>351</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>0.47103065399999999</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>353</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>0.37826958700000002</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>355</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>0.90311748999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>357</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>0.477434953</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>359</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0.240232948</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>361</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>0.20727762399999999</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>363</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>0.18738121999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>365</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>0.28540892899999998</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>367</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>0.212397898</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>369</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>0.69072920299999996</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>371</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>0.226231668</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>373</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>0.31573054699999997</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>375</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>0.62019947600000003</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>377</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>0.40871876899999998</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>379</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>0.20889311799999999</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>381</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>0.23043298200000001</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>383</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>0.38457783499999998</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>385</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0.42744749799999998</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>387</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>0.27713596600000001</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>389</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>0.92694539799999998</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>391</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>0.211074821</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>393</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>0.36646952500000002</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>395</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>0.196525851</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>397</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>0.185729488</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>399</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>0.37762712399999998</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>402</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>0.99999792399999998</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>404</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>0.35312995600000002</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>406</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>0.30976582000000003</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>408</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>0.193144598</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>410</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>0.19539134799999999</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>412</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>0.33073484199999997</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>414</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>0.33436614799999997</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>416</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>0.53296923200000001</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>418</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>0.71832722800000004</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>420</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>0.19453941299999999</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>422</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>0.20658236499999999</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>424</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>0.64060452700000003</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>426</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>0.25257163300000002</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>428</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>0.21258152499999999</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>430</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>0.84421047400000004</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>432</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>0.19454253799999999</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>434</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>0.210923315</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>436</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>0.56343069499999998</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>438</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>0.245712228</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>440</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>0.26837336499999997</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>442</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>0.44232325700000003</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>444</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>0.268439704</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>446</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>0.25802857200000001</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>448</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>0.71866595300000002</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>450</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>0.20298744899999999</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>452</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>0.22074221199999999</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>454</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>0.21834590700000001</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>456</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>0.49590343999999997</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>458</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>0.230040625</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>460</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>0.22603379000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>462</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>0.99500640900000004</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>464</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>0.19863646900000001</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>466</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>0.25795229400000003</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>468</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>0.234779407</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>470</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>0.22868772100000001</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>472</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>0.20074213199999999</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>474</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>0.201315412</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>476</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>0.40873564800000001</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>478</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>0.33625572199999998</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>480</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>0.38620364499999998</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>482</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>0.30567097599999998</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>484</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>0.32492758399999999</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>487</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>0.86173392699999996</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>489</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>0.25715539599999998</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>491</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>0.27437367800000001</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>493</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>0.19658705700000001</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>495</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>0.24739223499999999</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>497</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>0.28286190300000003</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>499</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>0.193452291</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>501</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>0.23563063300000001</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>503</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>0.32773430799999997</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>505</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>0.28752050800000001</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>507</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>0.18905708600000001</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>509</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>0.303377275</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>511</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>0.80586839099999996</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>513</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>0.24078201599999999</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>515</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>0.23030685000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>517</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>0.19079539100000001</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>519</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>0.47738814800000001</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>521</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>0.20032677700000001</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>523</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>0.28417725999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>525</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>0.198620242</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>527</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>0.21619390699999999</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>529</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>0.192800104</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>531</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>0.42345578499999997</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>533</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>0.25925051500000001</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>535</v>
       </c>
@@ -12041,22 +12041,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC83F110-E005-4316-A693-375CB65FFDF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="20.53515625" customWidth="1"/>
-    <col min="3" max="3" width="19.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12085,7 +12086,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -12126,7 +12127,7 @@
         <v>47.649401926294502</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -12167,7 +12168,7 @@
         <v>226.8272507005731</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>173.80467247196657</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -12249,7 +12250,7 @@
         <v>37.449023211242633</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -12290,7 +12291,7 @@
         <v>75.308371956500807</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -12325,7 +12326,7 @@
         <v>96.709099332760118</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -12363,7 +12364,7 @@
         <v>88.094850428801649</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -12398,7 +12399,7 @@
         <v>61.721139355506907</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -12440,7 +12441,7 @@
         <v>81.897001990517097</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -12475,7 +12476,7 @@
         <v>49.316047477338195</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -12510,7 +12511,7 @@
         <v>11.791797070445757</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -12545,7 +12546,7 @@
         <v>53.160604939849037</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -12580,7 +12581,7 @@
         <v>38.293278785109571</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -12615,7 +12616,7 @@
         <v>82.21778671039425</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -12650,7 +12651,7 @@
         <v>97.647926234182563</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -12685,7 +12686,7 @@
         <v>35.826720113108884</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -12720,7 +12721,7 @@
         <v>50.462161454007777</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -12755,7 +12756,7 @@
         <v>16.946869304604185</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -12790,7 +12791,7 @@
         <v>258.72560017388594</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -12825,7 +12826,7 @@
         <v>41.850085941815067</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -12860,7 +12861,7 @@
         <v>84.313473464984611</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -12895,7 +12896,7 @@
         <v>34.935519548021645</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>69.402477719318199</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -12965,7 +12966,7 @@
         <v>28.516912270314336</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -13000,7 +13001,7 @@
         <v>167.86311714967093</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -13035,7 +13036,7 @@
         <v>28.077882085985173</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -13070,7 +13071,7 @@
         <v>85.967512519452058</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -13105,7 +13106,7 @@
         <v>189.17578991034298</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -13140,7 +13141,7 @@
         <v>261.73270914208689</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -13175,7 +13176,7 @@
         <v>61.527011670366406</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -13210,7 +13211,7 @@
         <v>45.51008611208632</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -13245,7 +13246,7 @@
         <v>87.634417615642406</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -13280,7 +13281,7 @@
         <v>138.04091241502744</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -13315,7 +13316,7 @@
         <v>23.162884569757335</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -13350,7 +13351,7 @@
         <v>130.38568474573981</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -13385,7 +13386,7 @@
         <v>119.76019944758991</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -13420,7 +13421,7 @@
         <v>52.961572540977215</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -13455,7 +13456,7 @@
         <v>65.043354659658164</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -13490,7 +13491,7 @@
         <v>40.287007744022709</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -13525,7 +13526,7 @@
         <v>162.58243819992884</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -13560,7 +13561,7 @@
         <v>214.52309235773683</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -13595,7 +13596,7 @@
         <v>123.01961040551274</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>62.831611936470566</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -13665,7 +13666,7 @@
         <v>39.300180232704875</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -13700,7 +13701,7 @@
         <v>144.48941650776439</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -13735,7 +13736,7 @@
         <v>93.754068238685079</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -13770,7 +13771,7 @@
         <v>58.104448492109867</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -13805,7 +13806,7 @@
         <v>65.359744714498802</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -13840,7 +13841,7 @@
         <v>52.305554158574331</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -13875,7 +13876,7 @@
         <v>20.984242520021372</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -13910,7 +13911,7 @@
         <v>44.069494466314644</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -13945,7 +13946,7 @@
         <v>70.729405180180294</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -13980,7 +13981,7 @@
         <v>57.889971167904235</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -14015,7 +14016,7 @@
         <v>65.679752029385838</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -14050,7 +14051,7 @@
         <v>15.058243817472235</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -14085,7 +14086,7 @@
         <v>15.036428579365388</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -14120,7 +14121,7 @@
         <v>379.19471378320407</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -14155,7 +14156,7 @@
         <v>77.033351620301076</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -14190,7 +14191,7 @@
         <v>68.811562963494353</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -14225,7 +14226,7 @@
         <v>32.839733371649494</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -14260,7 +14261,7 @@
         <v>29.83815702213181</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -14295,7 +14296,7 @@
         <v>57.199367599314421</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -14330,7 +14331,7 @@
         <v>43.2528570094263</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -14365,7 +14366,7 @@
         <v>51.016438161954468</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -14400,7 +14401,7 @@
         <v>36.280121841958035</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -14435,7 +14436,7 @@
         <v>184.33250196252123</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -14470,7 +14471,7 @@
         <v>75.351073156096561</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -14505,7 +14506,7 @@
         <v>8.6622422454560724</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -14540,7 +14541,7 @@
         <v>29.030262695605508</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -14575,7 +14576,7 @@
         <v>40.72396860145416</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -14610,7 +14611,7 @@
         <v>12.782420480463777</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>29</v>
       </c>
@@ -14645,7 +14646,7 @@
         <v>116.32437110830631</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -14680,7 +14681,7 @@
         <v>76.054769646468912</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -14715,7 +14716,7 @@
         <v>114.20389729566016</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -14750,7 +14751,7 @@
         <v>74.92269586959199</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -14785,7 +14786,7 @@
         <v>88.909567947994191</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -14820,7 +14821,7 @@
         <v>27.685144260031116</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -14855,7 +14856,7 @@
         <v>97.874681718129125</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -14890,7 +14891,7 @@
         <v>16.075280414405377</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -14925,7 +14926,7 @@
         <v>21.274014421700709</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -14960,7 +14961,7 @@
         <v>41.359534384591321</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -14995,7 +14996,7 @@
         <v>37.738700673752035</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -15030,7 +15031,7 @@
         <v>121.54517469701528</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -15065,7 +15066,7 @@
         <v>33.788036971587175</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>29</v>
       </c>
@@ -15100,7 +15101,7 @@
         <v>62.824765588605047</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -15135,7 +15136,7 @@
         <v>109.61062863294421</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -15170,7 +15171,7 @@
         <v>142.72734909774559</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -15205,7 +15206,7 @@
         <v>47.08775781075002</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -15240,7 +15241,7 @@
         <v>11.533871183085608</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -15275,7 +15276,7 @@
         <v>213.25244397544375</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -15310,7 +15311,7 @@
         <v>131.82689758681221</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -15345,7 +15346,7 @@
         <v>115.9729212018695</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -15380,7 +15381,7 @@
         <v>42.87564639320972</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -15415,7 +15416,7 @@
         <v>61.903997802692743</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -15450,7 +15451,7 @@
         <v>214.34650114140311</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -15485,7 +15486,7 @@
         <v>6.1841512184776519</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -15520,7 +15521,7 @@
         <v>270.70365591149357</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -15555,7 +15556,7 @@
         <v>41.986200209769954</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -15590,7 +15591,7 @@
         <v>39.406156032629156</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>42</v>
       </c>
@@ -15625,7 +15626,7 @@
         <v>76.914996378993862</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -15660,7 +15661,7 @@
         <v>41.086167462514211</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -15695,7 +15696,7 @@
         <v>67.256078505268675</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -15730,7 +15731,7 @@
         <v>50.232020665986809</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -15765,7 +15766,7 @@
         <v>337.48294037400029</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>29</v>
       </c>
@@ -15800,7 +15801,7 @@
         <v>55.491368062713619</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -15835,7 +15836,7 @@
         <v>61.26609651146228</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>29</v>
       </c>
@@ -15870,7 +15871,7 @@
         <v>104.32086767739311</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -15905,7 +15906,7 @@
         <v>381.39050355775754</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -15940,7 +15941,7 @@
         <v>51.036160463616646</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -15975,7 +15976,7 @@
         <v>14.88112693970384</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -16010,7 +16011,7 @@
         <v>54.346359326849672</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -16045,7 +16046,7 @@
         <v>171.33226397175324</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>29</v>
       </c>
@@ -16080,7 +16081,7 @@
         <v>117.13414896308906</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -16115,7 +16116,7 @@
         <v>47.805026831635843</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -16150,7 +16151,7 @@
         <v>201.72174850281198</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -16185,7 +16186,7 @@
         <v>55.802312508952674</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>29</v>
       </c>
@@ -16220,7 +16221,7 @@
         <v>123.50248622321706</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>42</v>
       </c>
@@ -16255,7 +16256,7 @@
         <v>5.7953173830301239</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>29</v>
       </c>
@@ -16290,7 +16291,7 @@
         <v>111.67619142542638</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -16325,7 +16326,7 @@
         <v>44.565218448612114</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -16360,7 +16361,7 @@
         <v>29.935458820645081</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -16395,7 +16396,7 @@
         <v>27.485163885188975</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>29</v>
       </c>
@@ -16430,7 +16431,7 @@
         <v>92.091383073762159</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -16465,7 +16466,7 @@
         <v>55.080877762054747</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -16500,7 +16501,7 @@
         <v>57.9600605857636</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>29</v>
       </c>
@@ -16535,7 +16536,7 @@
         <v>154.2150406023616</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -16570,7 +16571,7 @@
         <v>51.448479194528723</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -16605,7 +16606,7 @@
         <v>68.326297844472336</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -16640,7 +16641,7 @@
         <v>29.776753170599648</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -16675,7 +16676,7 @@
         <v>110.28225568050495</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -16710,7 +16711,7 @@
         <v>72.746278577021371</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>29</v>
       </c>
@@ -16745,7 +16746,7 @@
         <v>131.50917899709523</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -16780,7 +16781,7 @@
         <v>46.448871927399736</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -16815,7 +16816,7 @@
         <v>79.754749462780623</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -16850,7 +16851,7 @@
         <v>181.81808656302698</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -16885,7 +16886,7 @@
         <v>152.46548414602663</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -16920,7 +16921,7 @@
         <v>161.34817402458768</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -16955,7 +16956,7 @@
         <v>63.978363454186891</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -16990,7 +16991,7 @@
         <v>98.998051248404693</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -17025,7 +17026,7 @@
         <v>38.643909405167456</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -17060,7 +17061,7 @@
         <v>174.73684226074238</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -17095,7 +17096,7 @@
         <v>59.352504007595627</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>29</v>
       </c>
@@ -17130,7 +17131,7 @@
         <v>69.610932948620317</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -17165,7 +17166,7 @@
         <v>131.22009770148654</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>29</v>
       </c>
@@ -17200,7 +17201,7 @@
         <v>90.89007460909167</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -17235,7 +17236,7 @@
         <v>153.02454816749662</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -17270,7 +17271,7 @@
         <v>112.10075610186982</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -17305,7 +17306,7 @@
         <v>21.179499057899822</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -17340,7 +17341,7 @@
         <v>53.137431427080813</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -17375,7 +17376,7 @@
         <v>109.01075603333308</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>29</v>
       </c>
@@ -17410,7 +17411,7 @@
         <v>34.554985460446446</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -17445,7 +17446,7 @@
         <v>111.41877336187373</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>29</v>
       </c>
@@ -17480,7 +17481,7 @@
         <v>339.89513475898013</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -17515,7 +17516,7 @@
         <v>57.271552882750775</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -17550,7 +17551,7 @@
         <v>17.927212597641738</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -17585,7 +17586,7 @@
         <v>33.468400650229832</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>29</v>
       </c>
@@ -17620,7 +17621,7 @@
         <v>78.587132745108732</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -17655,7 +17656,7 @@
         <v>28.893198803485106</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -17690,7 +17691,7 @@
         <v>45.56865979200942</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -17725,7 +17726,7 @@
         <v>29.813527929879129</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -17760,7 +17761,7 @@
         <v>153.81977502456377</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>29</v>
       </c>
@@ -17795,7 +17796,7 @@
         <v>81.930424707012008</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -17830,7 +17831,7 @@
         <v>28.100770626086863</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -17865,7 +17866,7 @@
         <v>116.63203721849328</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>29</v>
       </c>
@@ -17900,7 +17901,7 @@
         <v>59.581926708699626</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>29</v>
       </c>
@@ -17935,7 +17936,7 @@
         <v>84.594609458401351</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -17970,7 +17971,7 @@
         <v>52.542896442022396</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>42</v>
       </c>
@@ -18005,7 +18006,7 @@
         <v>59.809359956880826</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>18</v>
       </c>
@@ -18040,7 +18041,7 @@
         <v>143.04371265182044</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>29</v>
       </c>
@@ -18075,7 +18076,7 @@
         <v>83.699211529203779</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -18110,7 +18111,7 @@
         <v>124.36598710209032</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>29</v>
       </c>
@@ -18145,7 +18146,7 @@
         <v>123.95168828748717</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -18180,7 +18181,7 @@
         <v>30.582326555252131</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -18215,7 +18216,7 @@
         <v>65.273097301718082</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>42</v>
       </c>
@@ -18250,7 +18251,7 @@
         <v>30.419113860678799</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>18</v>
       </c>
@@ -18285,7 +18286,7 @@
         <v>247.42263871515541</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>29</v>
       </c>
@@ -18320,7 +18321,7 @@
         <v>100.51562451079569</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>29</v>
       </c>
@@ -18355,7 +18356,7 @@
         <v>289.35524642108305</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -18390,7 +18391,7 @@
         <v>45.106608971090047</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -18425,7 +18426,7 @@
         <v>95.372110870570566</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>42</v>
       </c>
@@ -18460,7 +18461,7 @@
         <v>5.785020764265056</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>29</v>
       </c>
@@ -18495,7 +18496,7 @@
         <v>58.999426322767604</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>29</v>
       </c>
@@ -18530,7 +18531,7 @@
         <v>114.0280980598869</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>29</v>
       </c>
@@ -18565,7 +18566,7 @@
         <v>312.67158536407288</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>42</v>
       </c>
@@ -18600,7 +18601,7 @@
         <v>15.57449462688756</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>29</v>
       </c>
@@ -18635,7 +18636,7 @@
         <v>123.48906167017105</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -18670,7 +18671,7 @@
         <v>27.786677914486866</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -18705,7 +18706,7 @@
         <v>34.728802372009802</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>29</v>
       </c>
@@ -18740,7 +18741,7 @@
         <v>99.061383001707256</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -18775,7 +18776,7 @@
         <v>64.053358564178495</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>29</v>
       </c>
@@ -18810,7 +18811,7 @@
         <v>199.3052443742331</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>18</v>
       </c>
@@ -18845,7 +18846,7 @@
         <v>396.16259294468858</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>29</v>
       </c>
@@ -18880,7 +18881,7 @@
         <v>55.591581765129874</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -18915,7 +18916,7 @@
         <v>30.172125883468738</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -18950,7 +18951,7 @@
         <v>150.12421113695555</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>29</v>
       </c>
@@ -18985,7 +18986,7 @@
         <v>82.572000601781667</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -19020,7 +19021,7 @@
         <v>31.237085860643312</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>42</v>
       </c>
@@ -19055,7 +19056,7 @@
         <v>102.81442583163179</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>42</v>
       </c>
@@ -19090,7 +19091,7 @@
         <v>12.175902398710605</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>18</v>
       </c>
@@ -19125,7 +19126,7 @@
         <v>132.92458139825681</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>18</v>
       </c>
@@ -19160,7 +19161,7 @@
         <v>233.86152224880948</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -19195,7 +19196,7 @@
         <v>39.010779094018631</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -19230,7 +19231,7 @@
         <v>41.141151872039522</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -19265,7 +19266,7 @@
         <v>86.832987023543666</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -19300,7 +19301,7 @@
         <v>50.142464563051227</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>18</v>
       </c>
@@ -19335,7 +19336,7 @@
         <v>94.935011872899182</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -19370,7 +19371,7 @@
         <v>145.14303256523462</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -19405,7 +19406,7 @@
         <v>43.129291911525932</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>29</v>
       </c>
@@ -19440,7 +19441,7 @@
         <v>41.778074585740413</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>29</v>
       </c>
@@ -19475,7 +19476,7 @@
         <v>63.189953971290862</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -19510,7 +19511,7 @@
         <v>64.92501194352171</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -19545,7 +19546,7 @@
         <v>18.929145512610773</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>42</v>
       </c>
@@ -19580,7 +19581,7 @@
         <v>7.6295905319627746</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -19615,7 +19616,7 @@
         <v>236.77348202745367</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -19650,7 +19651,7 @@
         <v>48.717460150081109</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>42</v>
       </c>
@@ -19685,7 +19686,7 @@
         <v>9.6248470461008431</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -19720,7 +19721,7 @@
         <v>76.297387945739501</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>29</v>
       </c>
@@ -19755,7 +19756,7 @@
         <v>81.807409658858958</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>18</v>
       </c>
@@ -19790,7 +19791,7 @@
         <v>92.582247891294742</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -19825,7 +19826,7 @@
         <v>49.462159394341427</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -19860,7 +19861,7 @@
         <v>79.745790441997286</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -19895,7 +19896,7 @@
         <v>53.191504481617621</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>18</v>
       </c>
@@ -19930,7 +19931,7 @@
         <v>197.05551917308287</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -19965,7 +19966,7 @@
         <v>57.998496936329815</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -20000,7 +20001,7 @@
         <v>62.06176224318088</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -20035,7 +20036,7 @@
         <v>175.33127419510367</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>29</v>
       </c>
@@ -20070,7 +20071,7 @@
         <v>84.188512067637461</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>18</v>
       </c>
@@ -20105,7 +20106,7 @@
         <v>128.9252866978731</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -20140,7 +20141,7 @@
         <v>21.814449470579966</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -20175,7 +20176,7 @@
         <v>20.847226788768285</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>29</v>
       </c>
@@ -20210,7 +20211,7 @@
         <v>93.25417783451995</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -20245,7 +20246,7 @@
         <v>47.276349443839507</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -20280,7 +20281,7 @@
         <v>86.130036552594461</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -20315,7 +20316,7 @@
         <v>29.728398386618871</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>29</v>
       </c>
@@ -20350,7 +20351,7 @@
         <v>94.897083106322441</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>29</v>
       </c>
@@ -20385,7 +20386,7 @@
         <v>53.841775132457052</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -20420,7 +20421,7 @@
         <v>37.195453071001225</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>29</v>
       </c>
@@ -20455,7 +20456,7 @@
         <v>358.6588389136399</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>29</v>
       </c>
@@ -20490,7 +20491,7 @@
         <v>62.287604493689145</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>29</v>
       </c>
@@ -20525,7 +20526,7 @@
         <v>67.007555036389988</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -20560,7 +20561,7 @@
         <v>33.75902656155143</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>29</v>
       </c>
@@ -20595,7 +20596,7 @@
         <v>145.86904834932304</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>29</v>
       </c>
@@ -20630,7 +20631,7 @@
         <v>77.564438644778832</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>29</v>
       </c>
@@ -20665,7 +20666,7 @@
         <v>84.201494894921737</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>42</v>
       </c>
@@ -20700,7 +20701,7 @@
         <v>12.567358183639413</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>29</v>
       </c>
@@ -20735,7 +20736,7 @@
         <v>156.62210351331683</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -20770,7 +20771,7 @@
         <v>27.725523965871261</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -20805,7 +20806,7 @@
         <v>111.21329329036156</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>29</v>
       </c>
@@ -20840,7 +20841,7 @@
         <v>93.609185277923856</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>29</v>
       </c>
